--- a/Lacin_summary_othersolutionbcrm.xlsx
+++ b/Lacin_summary_othersolutionbcrm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A5143A-2B57-4FE8-B65C-042AEB3C46EE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8BA065-4CEB-4124-B53A-7281938FE71A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{7895986A-A8E4-411F-8CEA-A6F904D5DF91}"/>
   </bookViews>
@@ -387,79 +387,79 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>2.0901471738183072E-2</v>
+        <v>2.0979733705356881E-2</v>
       </c>
       <c r="B1">
-        <v>1.9334749499816701E-3</v>
+        <v>1.9334749735755519E-3</v>
       </c>
       <c r="C1">
-        <v>0.2712402939039138</v>
+        <v>0.27116203194303995</v>
       </c>
       <c r="D1">
-        <v>3.4231456835890378E-2</v>
+        <v>3.4231495030716527E-2</v>
       </c>
       <c r="E1">
-        <v>4.2292285827943754</v>
+        <v>4.2292285895141498E-21</v>
       </c>
       <c r="F1">
-        <v>7.2101061234301586E-2</v>
+        <v>7.2101025099163912E-2</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>2.0869111066918761E-2</v>
+        <v>2.0968907239077843E-2</v>
       </c>
       <c r="B2">
-        <v>7.5525204258209333E-3</v>
+        <v>7.5525210371449551E-3</v>
       </c>
       <c r="C2">
-        <v>0.34451147273965688</v>
+        <v>0.34441167593843824</v>
       </c>
       <c r="D2">
-        <v>4.0630518558010836E-2</v>
+        <v>4.0616936191589348E-2</v>
       </c>
       <c r="E2">
-        <v>5.9487280579708379</v>
+        <v>9.5000000014450517E-21</v>
       </c>
       <c r="F2">
-        <v>0.70428793768792375</v>
+        <v>0.70430158332812509</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2.0896924300378029E-2</v>
+        <v>2.0858150336375655E-2</v>
       </c>
       <c r="B3">
-        <v>3.6909189914528118E-3</v>
+        <v>3.6907722091441401E-3</v>
       </c>
       <c r="C3">
-        <v>0.31532052090105189</v>
+        <v>0.31535944071532468</v>
       </c>
       <c r="D3">
-        <v>3.849228329774617E-2</v>
+        <v>3.5937457462386115E-2</v>
       </c>
       <c r="E3">
-        <v>8.9610627698048901</v>
+        <v>9.5000000014450517E-21</v>
       </c>
       <c r="F3">
-        <v>0.21841185518069406</v>
+        <v>0.22095445547354753</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2.0412423592435013E-2</v>
+        <v>2.0441945242133948E-2</v>
       </c>
       <c r="B4">
-        <v>0.15709760968023445</v>
+        <v>0.15709765275003271</v>
       </c>
       <c r="C4">
-        <v>0.23469030253711784</v>
+        <v>0.23466073541094523</v>
       </c>
       <c r="D4">
         <v>9.9999999999977801E-2</v>
       </c>
       <c r="E4">
-        <v>1.5664431810638917</v>
+        <v>9.5001011555012064E-21</v>
       </c>
       <c r="F4">
         <v>9.9999999999999787</v>
@@ -467,19 +467,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>2.0589034869780212E-2</v>
+        <v>2.0622658413166028E-2</v>
       </c>
       <c r="B5">
-        <v>9.1301551238522474E-2</v>
+        <v>9.1301546643056314E-2</v>
       </c>
       <c r="C5">
-        <v>0.27425737638055875</v>
+        <v>0.27422375791725045</v>
       </c>
       <c r="D5">
         <v>9.9999999999977801E-2</v>
       </c>
       <c r="E5">
-        <v>9.5</v>
+        <v>9.5000000014450517E-21</v>
       </c>
       <c r="F5">
         <v>9.9999999999999787</v>
@@ -487,139 +487,139 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>2.0176245607895375E-2</v>
+        <v>2.0642900997480545E-2</v>
       </c>
       <c r="B6">
-        <v>0.23616565154933458</v>
+        <v>0.17597151531869565</v>
       </c>
       <c r="C6">
-        <v>0.12085997482677649</v>
+        <v>0.18059606056527022</v>
       </c>
       <c r="D6">
-        <v>9.9999999999977801E-2</v>
+        <v>9.9998912654022984E-2</v>
       </c>
       <c r="E6">
-        <v>9.5000000000000018</v>
+        <v>9.5000000014450517E-21</v>
       </c>
       <c r="F6">
-        <v>9.9999999999999787</v>
+        <v>7.4193704393690227</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>2.0846076310185729E-2</v>
+        <v>2.0840639164015299E-2</v>
       </c>
       <c r="B7">
-        <v>1.033357914027715E-2</v>
+        <v>1.0333579136578971E-2</v>
       </c>
       <c r="C7">
-        <v>0.24847666226829246</v>
+        <v>0.24848209941194072</v>
       </c>
       <c r="D7">
-        <v>3.8244186285923285E-2</v>
+        <v>3.8244186571606623E-2</v>
       </c>
       <c r="E7">
-        <v>5.5333888199279926</v>
+        <v>5.5333888176577347E-21</v>
       </c>
       <c r="F7">
-        <v>8.7445039831735225E-2</v>
+        <v>8.7445039482058479E-2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>2.082670389131764E-2</v>
+        <v>2.0828526396279294E-2</v>
       </c>
       <c r="B8">
-        <v>1.8755406350173143E-2</v>
+        <v>1.8755404835566758E-2</v>
       </c>
       <c r="C8">
-        <v>0.29520117376114463</v>
+        <v>0.29519935270273545</v>
       </c>
       <c r="D8">
-        <v>4.1436843101612948E-2</v>
+        <v>4.1436854877885961E-2</v>
       </c>
       <c r="E8">
-        <v>6.7396318596257769</v>
+        <v>6.7396318658010479E-21</v>
       </c>
       <c r="F8">
-        <v>0.27852326293464186</v>
+        <v>0.27852322066562413</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>2.0652077052657158E-2</v>
+        <v>2.0652503602074594E-2</v>
       </c>
       <c r="B9">
-        <v>7.5098730101805233E-2</v>
+        <v>7.5098722005191104E-2</v>
       </c>
       <c r="C9">
-        <v>0.28343662890211496</v>
+        <v>0.28343621395806362</v>
       </c>
       <c r="D9">
         <v>9.9999999999977801E-2</v>
       </c>
       <c r="E9">
-        <v>9.5000000000000018</v>
+        <v>9.5000000014450517E-21</v>
       </c>
       <c r="F9">
-        <v>9.9999999999999574</v>
+        <v>9.9999999999999787</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>2.0504379559868002E-2</v>
+        <v>2.0649151377202017E-2</v>
       </c>
       <c r="B10">
-        <v>7.7194534015877642E-2</v>
+        <v>7.7194533978412735E-2</v>
       </c>
       <c r="C10">
-        <v>0.14844488527904628</v>
+        <v>0.14830011480480246</v>
       </c>
       <c r="D10">
-        <v>9.9999999999977801E-2</v>
+        <v>9.9999999999955777E-2</v>
       </c>
       <c r="E10">
-        <v>1.7621266652699381</v>
+        <v>9.5000002601914286E-21</v>
       </c>
       <c r="F10">
-        <v>9.9999999999999787</v>
+        <v>9.9999999999999574</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>1.9669451971180488E-2</v>
+        <v>2.0864682978647586E-2</v>
       </c>
       <c r="B11">
-        <v>1.0151934921664512E-2</v>
+        <v>1.0151935112894476E-2</v>
       </c>
       <c r="C11">
-        <v>0.35456467533536029</v>
+        <v>0.35336944410388599</v>
       </c>
       <c r="D11">
-        <v>3.6915174725962042E-2</v>
+        <v>3.6977232911345373E-2</v>
       </c>
       <c r="E11">
-        <v>9.5000000000000018</v>
+        <v>9.5000000014450517E-21</v>
       </c>
       <c r="F11">
-        <v>0.10335696605001976</v>
+        <v>0.10329491146538314</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>1.9705608451674777E-2</v>
+        <v>1.9652762510853045E-2</v>
       </c>
       <c r="B12">
-        <v>0.37535978293679656</v>
+        <v>0.37536021524588786</v>
       </c>
       <c r="C12">
-        <v>1.2331995208019704E-2</v>
+        <v>1.2384371789244055E-2</v>
       </c>
       <c r="D12">
         <v>9.9999999999977801E-2</v>
       </c>
       <c r="E12">
-        <v>9.5000000000000018</v>
+        <v>9.5000000014450517E-21</v>
       </c>
       <c r="F12">
         <v>9.9999999999999787</v>
@@ -627,82 +627,82 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>2.0877457689064467E-2</v>
+        <v>2.0867267378827999E-2</v>
       </c>
       <c r="B13">
-        <v>1.0484976035440694E-2</v>
+        <v>1.0484980674986922E-2</v>
       </c>
       <c r="C13">
-        <v>0.34117359926358942</v>
+        <v>0.34118378501272789</v>
       </c>
       <c r="D13">
-        <v>3.8557550782413283E-2</v>
+        <v>4.0036949983842947E-2</v>
       </c>
       <c r="E13">
-        <v>1.7757565185031829</v>
+        <v>9.5019044347325565E-21</v>
       </c>
       <c r="F13">
-        <v>0.26846202507273875</v>
+        <v>0.26698278381222834</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>2.078870158812671E-2</v>
+        <v>2.0871816066514948E-2</v>
       </c>
       <c r="B14">
-        <v>4.8797270810313079E-3</v>
+        <v>4.8797271838518178E-3</v>
       </c>
       <c r="C14">
-        <v>0.29006422046408697</v>
+        <v>0.28998110587356096</v>
       </c>
       <c r="D14">
-        <v>3.4860652463838585E-2</v>
+        <v>3.4755031777655321E-2</v>
       </c>
       <c r="E14">
-        <v>9.5000000000000018</v>
+        <v>5.8857080544565737E-21</v>
       </c>
       <c r="F14">
-        <v>4.9819461478077122E-2</v>
+        <v>4.9925085065405161E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>2.0775902427737299E-2</v>
+        <v>2.0791485710513324E-2</v>
       </c>
       <c r="B15">
-        <v>5.1902431023357121E-2</v>
+        <v>5.190239810621624E-2</v>
       </c>
       <c r="C15">
-        <v>0.37938616975173312</v>
+        <v>0.37937061938419581</v>
       </c>
       <c r="D15">
-        <v>5.1788507646111238E-2</v>
+        <v>5.2980588291542487E-2</v>
       </c>
       <c r="E15">
-        <v>0.96975131869519171</v>
+        <v>9.5000021566130448E-21</v>
       </c>
       <c r="F15">
-        <v>1.5666120232842204</v>
+        <v>1.5654188917996501</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>2.0825742472643832E-2</v>
+        <v>2.0837783700202419E-2</v>
       </c>
       <c r="B16">
-        <v>2.1291670790206507E-2</v>
+        <v>2.1291611551281793E-2</v>
       </c>
       <c r="C16">
-        <v>0.34466246938012485</v>
+        <v>0.34465048737378196</v>
       </c>
       <c r="D16">
-        <v>5.8091494895608185E-2</v>
+        <v>5.7655951953579851E-2</v>
       </c>
       <c r="E16">
-        <v>0.49999999999999928</v>
+        <v>9.5000000014450517E-21</v>
       </c>
       <c r="F16">
-        <v>2.7594230644706466</v>
+        <v>2.7598506753065086</v>
       </c>
     </row>
   </sheetData>

--- a/Lacin_summary_othersolutionbcrm.xlsx
+++ b/Lacin_summary_othersolutionbcrm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8BA065-4CEB-4124-B53A-7281938FE71A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D46F449-E25B-4F5B-B81E-605FD2DED518}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{7895986A-A8E4-411F-8CEA-A6F904D5DF91}"/>
   </bookViews>
@@ -387,79 +387,79 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>2.0979733705356881E-2</v>
+        <v>2.0883908691013881E-2</v>
       </c>
       <c r="B1">
-        <v>1.9334749735755519E-3</v>
+        <v>1.9334749332489789E-3</v>
       </c>
       <c r="C1">
-        <v>0.27116203194303995</v>
+        <v>0.27125785699209837</v>
       </c>
       <c r="D1">
-        <v>3.4231495030716527E-2</v>
+        <v>3.4192455792968084E-2</v>
       </c>
       <c r="E1">
-        <v>4.2292285895141498E-21</v>
+        <v>5.1947086672103612E-21</v>
       </c>
       <c r="F1">
-        <v>7.2101025099163912E-2</v>
+        <v>7.2140060826819202E-2</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>2.0968907239077843E-2</v>
+        <v>2.0860931471360429E-2</v>
       </c>
       <c r="B2">
-        <v>7.5525210371449551E-3</v>
+        <v>7.5525198873936826E-3</v>
       </c>
       <c r="C2">
-        <v>0.34441167593843824</v>
+        <v>0.34451965287569397</v>
       </c>
       <c r="D2">
-        <v>4.0616936191589348E-2</v>
+        <v>4.044092664500884E-2</v>
       </c>
       <c r="E2">
-        <v>9.5000000014450517E-21</v>
+        <v>9.3641097648380672E-21</v>
       </c>
       <c r="F2">
-        <v>0.70430158332812509</v>
+        <v>0.70447747311928499</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2.0858150336375655E-2</v>
+        <v>2.0815560494486917E-2</v>
       </c>
       <c r="B3">
-        <v>3.6907722091441401E-3</v>
+        <v>3.6908230349875248E-3</v>
       </c>
       <c r="C3">
-        <v>0.31535944071532468</v>
+        <v>0.31540197987626661</v>
       </c>
       <c r="D3">
-        <v>3.5937457462386115E-2</v>
+        <v>3.583766436296492E-2</v>
       </c>
       <c r="E3">
         <v>9.5000000014450517E-21</v>
       </c>
       <c r="F3">
-        <v>0.22095445547354753</v>
+        <v>0.22105848191344701</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2.0441945242133948E-2</v>
+        <v>2.0410650744192693E-2</v>
       </c>
       <c r="B4">
-        <v>0.15709765275003271</v>
+        <v>0.15709765247839874</v>
       </c>
       <c r="C4">
-        <v>0.23466073541094523</v>
+        <v>0.23469203092355773</v>
       </c>
       <c r="D4">
         <v>9.9999999999977801E-2</v>
       </c>
       <c r="E4">
-        <v>9.5001011555012064E-21</v>
+        <v>3.5212859309941864E-21</v>
       </c>
       <c r="F4">
         <v>9.9999999999999787</v>
@@ -467,13 +467,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>2.0622658413166028E-2</v>
+        <v>2.0572461600101691E-2</v>
       </c>
       <c r="B5">
-        <v>9.1301546643056314E-2</v>
+        <v>9.1301551138469994E-2</v>
       </c>
       <c r="C5">
-        <v>0.27422375791725045</v>
+        <v>0.27427394971343383</v>
       </c>
       <c r="D5">
         <v>9.9999999999977801E-2</v>
@@ -487,139 +487,139 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>2.0642900997480545E-2</v>
+        <v>2.0662036496452894E-2</v>
       </c>
       <c r="B6">
-        <v>0.17597151531869565</v>
+        <v>0.23616565190057009</v>
       </c>
       <c r="C6">
-        <v>0.18059606056527022</v>
+        <v>0.12037418566801299</v>
       </c>
       <c r="D6">
-        <v>9.9998912654022984E-2</v>
+        <v>9.9999999999977801E-2</v>
       </c>
       <c r="E6">
-        <v>9.5000000014450517E-21</v>
+        <v>5.8226830347976742E-21</v>
       </c>
       <c r="F6">
-        <v>7.4193704393690227</v>
+        <v>9.9999999999999787</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>2.0840639164015299E-2</v>
+        <v>2.0810355068554765E-2</v>
       </c>
       <c r="B7">
-        <v>1.0333579136578971E-2</v>
+        <v>1.0333579257949553E-2</v>
       </c>
       <c r="C7">
-        <v>0.24848209941194072</v>
+        <v>0.24851238339370468</v>
       </c>
       <c r="D7">
-        <v>3.8244186571606623E-2</v>
+        <v>3.8002889260455808E-2</v>
       </c>
       <c r="E7">
-        <v>5.5333888176577347E-21</v>
+        <v>9.5000000014450517E-21</v>
       </c>
       <c r="F7">
-        <v>8.7445039482058479E-2</v>
+        <v>8.7686338902047439E-2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>2.0828526396279294E-2</v>
+        <v>2.0784198354785472E-2</v>
       </c>
       <c r="B8">
-        <v>1.8755404835566758E-2</v>
+        <v>1.8755410504103946E-2</v>
       </c>
       <c r="C8">
-        <v>0.29519935270273545</v>
+        <v>0.29524367516283745</v>
       </c>
       <c r="D8">
-        <v>4.1436854877885961E-2</v>
+        <v>4.1436946917521485E-2</v>
       </c>
       <c r="E8">
-        <v>6.7396318658010479E-21</v>
+        <v>3.7733631137308716E-21</v>
       </c>
       <c r="F8">
-        <v>0.27852322066562413</v>
+        <v>0.27852324051423183</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>2.0652503602074594E-2</v>
+        <v>2.0618377124250426E-2</v>
       </c>
       <c r="B9">
-        <v>7.5098722005191104E-2</v>
+        <v>7.5098730231894492E-2</v>
       </c>
       <c r="C9">
-        <v>0.28343621395806362</v>
+        <v>0.28347032604155858</v>
       </c>
       <c r="D9">
-        <v>9.9999999999977801E-2</v>
+        <v>9.9999999999961162E-2</v>
       </c>
       <c r="E9">
-        <v>9.5000000014450517E-21</v>
+        <v>7.378555726882468E-21</v>
       </c>
       <c r="F9">
-        <v>9.9999999999999787</v>
+        <v>9.9999999999999609</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>2.0649151377202017E-2</v>
+        <v>2.0491167196767426E-2</v>
       </c>
       <c r="B10">
-        <v>7.7194533978412735E-2</v>
+        <v>7.7194533998224152E-2</v>
       </c>
       <c r="C10">
-        <v>0.14830011480480246</v>
+        <v>0.14845809906975785</v>
       </c>
       <c r="D10">
-        <v>9.9999999999955777E-2</v>
+        <v>9.9999999999977801E-2</v>
       </c>
       <c r="E10">
-        <v>9.5000002601914286E-21</v>
+        <v>7.8124751995675807E-21</v>
       </c>
       <c r="F10">
-        <v>9.9999999999999574</v>
+        <v>9.9999999999999787</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>2.0864682978647586E-2</v>
+        <v>2.0860904450864921E-2</v>
       </c>
       <c r="B11">
-        <v>1.0151935112894476E-2</v>
+        <v>1.0151934968936146E-2</v>
       </c>
       <c r="C11">
-        <v>0.35336944410388599</v>
+        <v>0.35337322276582422</v>
       </c>
       <c r="D11">
-        <v>3.6977232911345373E-2</v>
+        <v>3.7374902727125091E-2</v>
       </c>
       <c r="E11">
-        <v>9.5000000014450517E-21</v>
+        <v>5.6356022130339305E-21</v>
       </c>
       <c r="F11">
-        <v>0.10329491146538314</v>
+        <v>0.10289723893645383</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>1.9652762510853045E-2</v>
+        <v>1.97051014418861E-2</v>
       </c>
       <c r="B12">
-        <v>0.37536021524588786</v>
+        <v>0.37535935419712763</v>
       </c>
       <c r="C12">
-        <v>1.2384371789244055E-2</v>
+        <v>1.2332961612655119E-2</v>
       </c>
       <c r="D12">
         <v>9.9999999999977801E-2</v>
       </c>
       <c r="E12">
-        <v>9.5000000014450517E-21</v>
+        <v>3.8470918588465785E-21</v>
       </c>
       <c r="F12">
         <v>9.9999999999999787</v>
@@ -627,82 +627,82 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>2.0867267378827999E-2</v>
+        <v>2.0848532399393927E-2</v>
       </c>
       <c r="B13">
-        <v>1.0484980674986922E-2</v>
+        <v>1.048497754959485E-2</v>
       </c>
       <c r="C13">
-        <v>0.34118378501272789</v>
+        <v>0.34120252311446819</v>
       </c>
       <c r="D13">
-        <v>4.0036949983842947E-2</v>
+        <v>3.9423978545248983E-2</v>
       </c>
       <c r="E13">
-        <v>9.5019044347325565E-21</v>
+        <v>9.5000000014450517E-21</v>
       </c>
       <c r="F13">
-        <v>0.26698278381222834</v>
+        <v>0.26759564881345532</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>2.0871816066514948E-2</v>
+        <v>2.0914237207588504E-2</v>
       </c>
       <c r="B14">
-        <v>4.8797271838518178E-3</v>
+        <v>4.8797269025110156E-3</v>
       </c>
       <c r="C14">
-        <v>0.28998110587356096</v>
+        <v>0.28993868501251596</v>
       </c>
       <c r="D14">
-        <v>3.4755031777655321E-2</v>
+        <v>3.454064867966504E-2</v>
       </c>
       <c r="E14">
-        <v>5.8857080544565737E-21</v>
+        <v>9.5136863374092964E-21</v>
       </c>
       <c r="F14">
-        <v>4.9925085065405161E-2</v>
+        <v>5.0139460186337859E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>2.0791485710513324E-2</v>
+        <v>2.1053144130016518E-2</v>
       </c>
       <c r="B15">
-        <v>5.190239810621624E-2</v>
+        <v>5.1902395790734322E-2</v>
       </c>
       <c r="C15">
-        <v>0.37937061938419581</v>
+        <v>0.37910896331036353</v>
       </c>
       <c r="D15">
-        <v>5.2980588291542487E-2</v>
+        <v>5.256957035208408E-2</v>
       </c>
       <c r="E15">
-        <v>9.5000021566130448E-21</v>
+        <v>9.5038933455566795E-21</v>
       </c>
       <c r="F15">
-        <v>1.5654188917996501</v>
+        <v>1.5658298358075942</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>2.0837783700202419E-2</v>
+        <v>2.0918251657774008E-2</v>
       </c>
       <c r="B16">
-        <v>2.1291611551281793E-2</v>
+        <v>2.1291626147412455E-2</v>
       </c>
       <c r="C16">
-        <v>0.34465048737378196</v>
+        <v>0.34457000483966999</v>
       </c>
       <c r="D16">
-        <v>5.7655951953579851E-2</v>
+        <v>5.7209863257016394E-2</v>
       </c>
       <c r="E16">
-        <v>9.5000000014450517E-21</v>
+        <v>3.6110569609447987E-21</v>
       </c>
       <c r="F16">
-        <v>2.7598506753065086</v>
+        <v>2.7602987209048933</v>
       </c>
     </row>
   </sheetData>

--- a/Lacin_summary_othersolutionbcrm.xlsx
+++ b/Lacin_summary_othersolutionbcrm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D46F449-E25B-4F5B-B81E-605FD2DED518}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85B0DB6-2D8D-4981-A04E-F5C39293AA92}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{7895986A-A8E4-411F-8CEA-A6F904D5DF91}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{7895986A-A8E4-411F-8CEA-A6F904D5DF91}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -383,326 +383,326 @@
       <selection sqref="A1:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>2.0883908691013881E-2</v>
+        <v>2.0954251304430627E-2</v>
       </c>
       <c r="B1">
-        <v>1.9334749332489789E-3</v>
+        <v>1.9334743024129544E-3</v>
       </c>
       <c r="C1">
-        <v>0.27125785699209837</v>
+        <v>0.27118751496548488</v>
       </c>
       <c r="D1">
-        <v>3.4192455792968084E-2</v>
+        <v>3.5447433579969059E-2</v>
       </c>
       <c r="E1">
-        <v>5.1947086672103612E-21</v>
+        <v>9.5000000014450517E-21</v>
       </c>
       <c r="F1">
-        <v>7.2140060826819202E-2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7.088503100484006E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2.0860931471360429E-2</v>
+        <v>2.0792715039745994E-2</v>
       </c>
       <c r="B2">
-        <v>7.5525198873936826E-3</v>
+        <v>7.5525255228047709E-3</v>
       </c>
       <c r="C2">
-        <v>0.34451965287569397</v>
+        <v>0.34458786365878963</v>
       </c>
       <c r="D2">
-        <v>4.044092664500884E-2</v>
+        <v>4.3436627534130766E-2</v>
       </c>
       <c r="E2">
-        <v>9.3641097648380672E-21</v>
+        <v>8.749292871397808E-21</v>
       </c>
       <c r="F2">
-        <v>0.70447747311928499</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.70148236344073356</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2.0815560494486917E-2</v>
+        <v>2.0776753854910148E-2</v>
       </c>
       <c r="B3">
-        <v>3.6908230349875248E-3</v>
+        <v>3.6908176822399641E-3</v>
       </c>
       <c r="C3">
-        <v>0.31540197987626661</v>
+        <v>0.3154407918743854</v>
       </c>
       <c r="D3">
-        <v>3.583766436296492E-2</v>
+        <v>3.6961989125356136E-2</v>
       </c>
       <c r="E3">
+        <v>4.1968182960211297E-21</v>
+      </c>
+      <c r="F3">
+        <v>0.2199337113034861</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2.060640479520217E-2</v>
+      </c>
+      <c r="B4">
+        <v>9.9999656379555546E-2</v>
+      </c>
+      <c r="C4">
+        <v>0.29159641137925418</v>
+      </c>
+      <c r="D4">
+        <v>8.1307693025371885E-2</v>
+      </c>
+      <c r="E4">
         <v>9.5000000014450517E-21</v>
       </c>
-      <c r="F3">
-        <v>0.22105848191344701</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2.0410650744192693E-2</v>
-      </c>
-      <c r="B4">
-        <v>0.15709765247839874</v>
-      </c>
-      <c r="C4">
-        <v>0.23469203092355773</v>
-      </c>
-      <c r="D4">
-        <v>9.9999999999977801E-2</v>
-      </c>
-      <c r="E4">
-        <v>3.5212859309941864E-21</v>
-      </c>
       <c r="F4">
-        <v>9.9999999999999787</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6.3413747062704147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2.0572461600101691E-2</v>
+        <v>2.0644654387038813E-2</v>
       </c>
       <c r="B5">
-        <v>9.1301551138469994E-2</v>
+        <v>6.5532313566698058E-2</v>
       </c>
       <c r="C5">
-        <v>0.27427394971343383</v>
+        <v>0.29997115767752897</v>
       </c>
       <c r="D5">
-        <v>9.9999999999977801E-2</v>
+        <v>9.9999517245935476E-2</v>
       </c>
       <c r="E5">
-        <v>9.5000000014450517E-21</v>
+        <v>8.7535711196777548E-21</v>
       </c>
       <c r="F5">
-        <v>9.9999999999999787</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7.1432888509031276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2.0662036496452894E-2</v>
+        <v>2.0724444369064007E-2</v>
       </c>
       <c r="B6">
-        <v>0.23616565190057009</v>
+        <v>9.9999937569161021E-2</v>
       </c>
       <c r="C6">
-        <v>0.12037418566801299</v>
+        <v>0.25647629861948207</v>
       </c>
       <c r="D6">
-        <v>9.9999999999977801E-2</v>
+        <v>7.6785104936291468E-2</v>
       </c>
       <c r="E6">
-        <v>5.8226830347976742E-21</v>
+        <v>7.2636696250072512E-21</v>
       </c>
       <c r="F6">
-        <v>9.9999999999999787</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.1844737157476963</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2.0810355068554765E-2</v>
+        <v>2.0802633550229745E-2</v>
       </c>
       <c r="B7">
-        <v>1.0333579257949553E-2</v>
+        <v>1.0333579679974697E-2</v>
       </c>
       <c r="C7">
-        <v>0.24851238339370468</v>
+        <v>0.24852010449952336</v>
       </c>
       <c r="D7">
-        <v>3.8002889260455808E-2</v>
+        <v>4.0137971161844969E-2</v>
       </c>
       <c r="E7">
         <v>9.5000000014450517E-21</v>
       </c>
       <c r="F7">
-        <v>8.7686338902047439E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8.5551264334523758E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2.0784198354785472E-2</v>
+        <v>2.0774086950160864E-2</v>
       </c>
       <c r="B8">
-        <v>1.8755410504103946E-2</v>
+        <v>1.8755405988790851E-2</v>
       </c>
       <c r="C8">
-        <v>0.29524367516283745</v>
+        <v>0.29525379105628424</v>
       </c>
       <c r="D8">
-        <v>4.1436946917521485E-2</v>
+        <v>4.2391227171831587E-2</v>
       </c>
       <c r="E8">
-        <v>3.7733631137308716E-21</v>
+        <v>9.042963619420154E-21</v>
       </c>
       <c r="F8">
-        <v>0.27852324051423183</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.27756887113401468</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2.0618377124250426E-2</v>
+        <v>2.0583333615276356E-2</v>
       </c>
       <c r="B9">
-        <v>7.5098730231894492E-2</v>
+        <v>7.5098718840664533E-2</v>
       </c>
       <c r="C9">
-        <v>0.28347032604155858</v>
+        <v>0.28350538250177254</v>
       </c>
       <c r="D9">
-        <v>9.9999999999961162E-2</v>
+        <v>9.9999999999975372E-2</v>
       </c>
       <c r="E9">
-        <v>7.378555726882468E-21</v>
+        <v>9.5000000014450517E-21</v>
       </c>
       <c r="F9">
-        <v>9.9999999999999609</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9.9999999999999787</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2.0491167196767426E-2</v>
+        <v>2.0493872021246078E-2</v>
       </c>
       <c r="B10">
-        <v>7.7194533998224152E-2</v>
+        <v>7.719453401994987E-2</v>
       </c>
       <c r="C10">
-        <v>0.14845809906975785</v>
+        <v>0.14845539420091575</v>
       </c>
       <c r="D10">
         <v>9.9999999999977801E-2</v>
       </c>
       <c r="E10">
-        <v>7.8124751995675807E-21</v>
+        <v>9.5470198600632456E-21</v>
       </c>
       <c r="F10">
         <v>9.9999999999999787</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2.0860904450864921E-2</v>
+        <v>2.0834701831796629E-2</v>
       </c>
       <c r="B11">
-        <v>1.0151934968936146E-2</v>
+        <v>1.0151936798452567E-2</v>
       </c>
       <c r="C11">
-        <v>0.35337322276582422</v>
+        <v>0.35339942366537686</v>
       </c>
       <c r="D11">
-        <v>3.7374902727125091E-2</v>
+        <v>4.0356746056164246E-2</v>
       </c>
       <c r="E11">
-        <v>5.6356022130339305E-21</v>
+        <v>9.5000000014450517E-21</v>
       </c>
       <c r="F11">
-        <v>0.10289723893645383</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9.9915430088768867E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1.97051014418861E-2</v>
+        <v>2.0511488670741804E-2</v>
       </c>
       <c r="B12">
-        <v>0.37535935419712763</v>
+        <v>9.9999999619139954E-2</v>
       </c>
       <c r="C12">
-        <v>1.2332961612655119E-2</v>
+        <v>0.28690292163137665</v>
       </c>
       <c r="D12">
-        <v>9.9999999999977801E-2</v>
+        <v>6.0436900871091569E-2</v>
       </c>
       <c r="E12">
-        <v>3.8470918588465785E-21</v>
+        <v>9.5000000014450517E-21</v>
       </c>
       <c r="F12">
-        <v>9.9999999999999787</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2.6117377019627193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2.0848532399393927E-2</v>
+        <v>2.0881092545712021E-2</v>
       </c>
       <c r="B13">
-        <v>1.048497754959485E-2</v>
+        <v>1.0484976264411552E-2</v>
       </c>
       <c r="C13">
-        <v>0.34120252311446819</v>
+        <v>0.34116996419734591</v>
       </c>
       <c r="D13">
-        <v>3.9423978545248983E-2</v>
+        <v>4.1259882090867894E-2</v>
       </c>
       <c r="E13">
+        <v>7.978865982613023E-21</v>
+      </c>
+      <c r="F13">
+        <v>0.26575970155722622</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2.084143666683962E-2</v>
+      </c>
+      <c r="B14">
+        <v>4.879726997613164E-3</v>
+      </c>
+      <c r="C14">
+        <v>0.29001148546021854</v>
+      </c>
+      <c r="D14">
+        <v>3.5567381956172796E-2</v>
+      </c>
+      <c r="E14">
         <v>9.5000000014450517E-21</v>
       </c>
-      <c r="F13">
-        <v>0.26759564881345532</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>2.0914237207588504E-2</v>
-      </c>
-      <c r="B14">
-        <v>4.8797269025110156E-3</v>
-      </c>
-      <c r="C14">
-        <v>0.28993868501251596</v>
-      </c>
-      <c r="D14">
-        <v>3.454064867966504E-2</v>
-      </c>
-      <c r="E14">
-        <v>9.5136863374092964E-21</v>
-      </c>
       <c r="F14">
-        <v>5.0139460186337859E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.9112729606687631E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>2.1053144130016518E-2</v>
+        <v>2.0795464228114666E-2</v>
       </c>
       <c r="B15">
-        <v>5.1902395790734322E-2</v>
+        <v>5.1902398367279244E-2</v>
       </c>
       <c r="C15">
-        <v>0.37910896331036353</v>
+        <v>0.37936664060168895</v>
       </c>
       <c r="D15">
-        <v>5.256957035208408E-2</v>
+        <v>5.0443731448181574E-2</v>
       </c>
       <c r="E15">
-        <v>9.5038933455566795E-21</v>
+        <v>9.5000103986317825E-21</v>
       </c>
       <c r="F15">
-        <v>1.5658298358075942</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1.567955757161916</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>2.0918251657774008E-2</v>
+        <v>2.0890828346247479E-2</v>
       </c>
       <c r="B16">
-        <v>2.1291626147412455E-2</v>
+        <v>2.129167751441376E-2</v>
       </c>
       <c r="C16">
-        <v>0.34457000483966999</v>
+        <v>0.34459737677321295</v>
       </c>
       <c r="D16">
-        <v>5.7209863257016394E-2</v>
+        <v>5.9143731707169779E-2</v>
       </c>
       <c r="E16">
-        <v>3.6110569609447987E-21</v>
+        <v>3.5668904311534509E-21</v>
       </c>
       <c r="F16">
-        <v>2.7602987209048933</v>
+        <v>2.7583717277179738</v>
       </c>
     </row>
   </sheetData>
